--- a/excelTemplate/ExportDemurrageCalculationTemplate.xlsx
+++ b/excelTemplate/ExportDemurrageCalculationTemplate.xlsx
@@ -17,14 +17,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$1</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>S/N</t>
   </si>
@@ -484,6 +484,26 @@
         <scheme val="minor"/>
       </rPr>
       <t>export_container_bl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Receipt#</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=rs1.shipment_fee_receipt_no</t>
     </r>
     <r>
       <rPr>
@@ -992,11 +1012,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1009,10 +1027,11 @@
     <col min="12" max="13" width="24.375" style="18" customWidth="1"/>
     <col min="14" max="14" width="22.875" style="18" customWidth="1"/>
     <col min="15" max="15" width="18.5" style="18" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="18"/>
+    <col min="16" max="16" width="21.375" style="18" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1058,8 +1077,11 @@
       <c r="O1" s="13" t="s">
         <v>39</v>
       </c>
+      <c r="P1" s="13" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
         <v>23</v>
       </c>
@@ -1105,9 +1127,12 @@
       <c r="O2" s="19" t="s">
         <v>45</v>
       </c>
+      <c r="P2" s="19" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O1"/>
+  <autoFilter ref="A1:P1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
